--- a/data/output/set50/moderate_noisy/results/ssim.xlsx
+++ b/data/output/set50/moderate_noisy/results/ssim.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29530"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu-24.04\home\GaussianExperiments\data\output\moderate_noisy\results\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu-24.04\home\GaussianExperiments\data\output\set50\moderate_noisy\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFE3B2AE-EFC6-4BA9-8321-CA2AB8B0E6EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{440E3A47-4A12-4716-9EDE-3A89320B8CC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-24120" yWindow="-120" windowWidth="24240" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Results" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>ssim_nlm</t>
   </si>
@@ -43,12 +43,15 @@
   <si>
     <t>ssim_bm3d</t>
   </si>
+  <si>
+    <t>ssim_dual</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -68,6 +71,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -105,12 +114,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -413,578 +425,732 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O51"/>
+  <dimension ref="A1:P51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="12" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2">
+        <v>0.92803188000000003</v>
+      </c>
+      <c r="B2">
         <v>0.91950235999999996</v>
       </c>
-      <c r="B2">
+      <c r="C2">
         <v>0.91147374699999995</v>
       </c>
-      <c r="C2">
+      <c r="D2">
         <v>0.95393857999999998</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3">
+        <v>0.92752071000000003</v>
+      </c>
+      <c r="B3">
         <v>0.91866135599999998</v>
       </c>
-      <c r="B3">
+      <c r="C3">
         <v>0.92789567500000003</v>
       </c>
-      <c r="C3">
+      <c r="D3">
         <v>0.94133199000000001</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4">
+        <v>0.85764662999999997</v>
+      </c>
+      <c r="B4">
         <v>0.85263561700000001</v>
       </c>
-      <c r="B4">
+      <c r="C4">
         <v>0.87072364000000002</v>
       </c>
-      <c r="C4">
+      <c r="D4">
         <v>0.88833786999999997</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5">
+        <v>0.88061412999999999</v>
+      </c>
+      <c r="B5">
         <v>0.87691848299999997</v>
       </c>
-      <c r="B5">
+      <c r="C5">
         <v>0.881116762</v>
       </c>
-      <c r="C5">
+      <c r="D5">
         <v>0.90683634899999999</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6">
+        <v>0.85801879000000003</v>
+      </c>
+      <c r="B6">
         <v>0.85048483200000002</v>
       </c>
-      <c r="B6">
+      <c r="C6">
         <v>0.86514257500000002</v>
       </c>
-      <c r="C6">
+      <c r="D6">
         <v>0.88648328600000004</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7">
+        <v>0.88118377999999997</v>
+      </c>
+      <c r="B7">
         <v>0.87535175099999996</v>
       </c>
-      <c r="B7">
+      <c r="C7">
         <v>0.89450790499999999</v>
       </c>
-      <c r="C7">
+      <c r="D7">
         <v>0.91435303899999998</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8">
+        <v>0.90027073999999996</v>
+      </c>
+      <c r="B8">
         <v>0.89306914999999998</v>
       </c>
-      <c r="B8">
+      <c r="C8">
         <v>0.893799177</v>
       </c>
-      <c r="C8">
+      <c r="D8">
         <v>0.90720680799999998</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9">
+        <v>0.88850467</v>
+      </c>
+      <c r="B9">
         <v>0.88020379400000004</v>
       </c>
-      <c r="B9">
+      <c r="C9">
         <v>0.89274822399999998</v>
       </c>
-      <c r="C9">
+      <c r="D9">
         <v>0.87431314699999996</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10">
+        <v>0.89967065999999996</v>
+      </c>
+      <c r="B10">
         <v>0.89621423600000005</v>
       </c>
-      <c r="B10">
+      <c r="C10">
         <v>0.89436450599999995</v>
       </c>
-      <c r="C10">
+      <c r="D10">
         <v>0.92209275000000002</v>
       </c>
-      <c r="G10" s="2"/>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="H10" s="2"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11">
+        <v>0.91473526999999999</v>
+      </c>
+      <c r="B11">
         <v>0.907835426</v>
       </c>
-      <c r="B11">
+      <c r="C11">
         <v>0.90848142499999995</v>
       </c>
-      <c r="C11">
+      <c r="D11">
         <v>0.91945748299999996</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12">
+        <v>0.91344555000000005</v>
+      </c>
+      <c r="B12">
         <v>0.90598348399999995</v>
       </c>
-      <c r="B12">
+      <c r="C12">
         <v>0.91024897999999999</v>
       </c>
-      <c r="C12">
+      <c r="D12">
         <v>0.93650699800000003</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13">
+        <v>0.89564876000000004</v>
+      </c>
+      <c r="B13">
         <v>0.88968011599999997</v>
       </c>
-      <c r="B13">
+      <c r="C13">
         <v>0.90157837399999996</v>
       </c>
-      <c r="C13">
+      <c r="D13">
         <v>0.90019667699999995</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14">
+        <v>0.84913817999999996</v>
+      </c>
+      <c r="B14">
         <v>0.84576431600000002</v>
       </c>
-      <c r="B14">
+      <c r="C14">
         <v>0.86160172199999996</v>
       </c>
-      <c r="C14">
+      <c r="D14">
         <v>0.87278795300000001</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15">
+        <v>0.91459407000000004</v>
+      </c>
+      <c r="B15">
         <v>0.90435765499999998</v>
       </c>
-      <c r="B15">
+      <c r="C15">
         <v>0.91410219000000004</v>
       </c>
-      <c r="C15">
+      <c r="D15">
         <v>0.94071555399999995</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16">
+        <v>0.90778106999999997</v>
+      </c>
+      <c r="B16">
         <v>0.90530961200000004</v>
       </c>
-      <c r="B16">
+      <c r="C16">
         <v>0.90699598299999995</v>
       </c>
-      <c r="C16">
+      <c r="D16">
         <v>0.87892959999999998</v>
       </c>
-      <c r="O16" s="2"/>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="P16" s="2"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17">
+        <v>0.87826716999999999</v>
+      </c>
+      <c r="B17">
         <v>0.87999181100000001</v>
       </c>
-      <c r="B17">
+      <c r="C17">
         <v>0.87990542400000005</v>
       </c>
-      <c r="C17">
+      <c r="D17">
         <v>0.876057529</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18">
+        <v>0.88121590999999999</v>
+      </c>
+      <c r="B18">
         <v>0.88293471999999995</v>
       </c>
-      <c r="B18">
+      <c r="C18">
         <v>0.87645923199999998</v>
       </c>
-      <c r="C18">
+      <c r="D18">
         <v>0.70276253300000002</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19">
+        <v>0.87034800000000001</v>
+      </c>
+      <c r="B19">
         <v>0.86816842699999996</v>
       </c>
-      <c r="B19">
+      <c r="C19">
         <v>0.88285378199999998</v>
       </c>
-      <c r="C19">
+      <c r="D19">
         <v>0.88599050099999999</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20">
+        <v>0.88858946999999999</v>
+      </c>
+      <c r="B20">
         <v>0.89361390399999996</v>
       </c>
-      <c r="B20">
+      <c r="C20">
         <v>0.89458380500000001</v>
       </c>
-      <c r="C20">
+      <c r="D20">
         <v>0.84754372499999997</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21">
+        <v>0.89211187999999997</v>
+      </c>
+      <c r="B21">
         <v>0.88060704599999995</v>
       </c>
-      <c r="B21">
+      <c r="C21">
         <v>0.89153747299999997</v>
       </c>
-      <c r="C21">
+      <c r="D21">
         <v>0.90499808199999998</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22">
+        <v>0.87049370000000004</v>
+      </c>
+      <c r="B22">
         <v>0.86796821700000004</v>
       </c>
-      <c r="B22">
+      <c r="C22">
         <v>0.87141279599999999</v>
       </c>
-      <c r="C22">
+      <c r="D22">
         <v>0.87471163900000004</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23">
+        <v>0.87526499999999996</v>
+      </c>
+      <c r="B23">
         <v>0.87272204600000003</v>
       </c>
-      <c r="B23">
+      <c r="C23">
         <v>0.86286554199999999</v>
       </c>
-      <c r="C23">
+      <c r="D23">
         <v>0.88209287300000006</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24">
+        <v>0.86975391000000002</v>
+      </c>
+      <c r="B24">
         <v>0.87335175300000001</v>
       </c>
-      <c r="B24">
+      <c r="C24">
         <v>0.85580736599999996</v>
       </c>
-      <c r="C24">
+      <c r="D24">
         <v>0.83472657100000003</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25">
+        <v>0.90570198999999996</v>
+      </c>
+      <c r="B25">
         <v>0.89769395799999996</v>
       </c>
-      <c r="B25">
+      <c r="C25">
         <v>0.89493239000000002</v>
       </c>
-      <c r="C25">
+      <c r="D25">
         <v>0.926836679</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26">
+        <v>0.87360167</v>
+      </c>
+      <c r="B26">
         <v>0.87313216400000004</v>
       </c>
-      <c r="B26">
+      <c r="C26">
         <v>0.86994895800000005</v>
       </c>
-      <c r="C26">
+      <c r="D26">
         <v>0.89720367700000003</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27">
+        <v>0.88609245000000003</v>
+      </c>
+      <c r="B27">
         <v>0.88586035799999996</v>
       </c>
-      <c r="B27">
+      <c r="C27">
         <v>0.87737812800000003</v>
       </c>
-      <c r="C27">
+      <c r="D27">
         <v>0.914757402</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28">
+        <v>0.84126372000000005</v>
+      </c>
+      <c r="B28">
         <v>0.84159973200000004</v>
       </c>
-      <c r="B28">
+      <c r="C28">
         <v>0.85803902899999995</v>
       </c>
-      <c r="C28">
+      <c r="D28">
         <v>0.883988369</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29">
+        <v>0.90671550000000001</v>
+      </c>
+      <c r="B29">
         <v>0.903366593</v>
       </c>
-      <c r="B29">
+      <c r="C29">
         <v>0.89707953900000004</v>
       </c>
-      <c r="C29">
+      <c r="D29">
         <v>0.91940512100000005</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30">
+        <v>0.86406099000000003</v>
+      </c>
+      <c r="B30">
         <v>0.86090441699999998</v>
       </c>
-      <c r="B30">
+      <c r="C30">
         <v>0.86291529499999997</v>
       </c>
-      <c r="C30">
+      <c r="D30">
         <v>0.88157461100000001</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31">
+        <v>0.87913390000000002</v>
+      </c>
+      <c r="B31">
         <v>0.87748546500000002</v>
       </c>
-      <c r="B31">
+      <c r="C31">
         <v>0.88230858599999995</v>
       </c>
-      <c r="C31">
+      <c r="D31">
         <v>0.75744347000000001</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32">
+        <v>0.84581052000000001</v>
+      </c>
+      <c r="B32">
         <v>0.85151902700000004</v>
       </c>
-      <c r="B32">
+      <c r="C32">
         <v>0.86305593800000002</v>
       </c>
-      <c r="C32">
+      <c r="D32">
         <v>0.86126657100000004</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33">
+        <v>0.88447237999999995</v>
+      </c>
+      <c r="B33">
         <v>0.89581964599999997</v>
       </c>
-      <c r="B33">
+      <c r="C33">
         <v>0.89287572400000004</v>
       </c>
-      <c r="C33">
+      <c r="D33">
         <v>0.75693974900000005</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34">
+        <v>0.80797922</v>
+      </c>
+      <c r="B34">
         <v>0.80829662599999996</v>
       </c>
-      <c r="B34">
+      <c r="C34">
         <v>0.816147595</v>
       </c>
-      <c r="C34">
+      <c r="D34">
         <v>0.80514216699999996</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35">
+        <v>0.83162398999999998</v>
+      </c>
+      <c r="B35">
         <v>0.83703588100000004</v>
       </c>
-      <c r="B35">
+      <c r="C35">
         <v>0.85373708400000003</v>
       </c>
-      <c r="C35">
+      <c r="D35">
         <v>0.85697594300000002</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36">
+        <v>0.87536744</v>
+      </c>
+      <c r="B36">
         <v>0.86982627400000001</v>
       </c>
-      <c r="B36">
+      <c r="C36">
         <v>0.88138914199999996</v>
       </c>
-      <c r="C36">
+      <c r="D36">
         <v>0.88184079100000001</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37">
+        <v>0.87942914000000005</v>
+      </c>
+      <c r="B37">
         <v>0.87536176899999996</v>
       </c>
-      <c r="B37">
+      <c r="C37">
         <v>0.88123205999999998</v>
       </c>
-      <c r="C37">
+      <c r="D37">
         <v>0.88397527799999998</v>
       </c>
-      <c r="H37" s="2"/>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I37" s="2"/>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38">
+        <v>0.89596763999999995</v>
+      </c>
+      <c r="B38">
         <v>0.88726930400000004</v>
       </c>
-      <c r="B38">
+      <c r="C38">
         <v>0.90020433499999997</v>
       </c>
-      <c r="C38">
+      <c r="D38">
         <v>0.90653885499999998</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39">
+        <v>0.81378550000000005</v>
+      </c>
+      <c r="B39">
         <v>0.82287117200000004</v>
       </c>
-      <c r="B39">
+      <c r="C39">
         <v>0.83032961699999996</v>
       </c>
-      <c r="C39">
+      <c r="D39">
         <v>0.81591610599999997</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40">
+        <v>0.88391713000000005</v>
+      </c>
+      <c r="B40">
         <v>0.87822579300000003</v>
       </c>
-      <c r="B40">
+      <c r="C40">
         <v>0.88415455499999995</v>
       </c>
-      <c r="C40">
+      <c r="D40">
         <v>0.90930345199999996</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41">
+        <v>0.90603402</v>
+      </c>
+      <c r="B41">
         <v>0.89899287699999997</v>
       </c>
-      <c r="B41">
+      <c r="C41">
         <v>0.88578738999999995</v>
       </c>
-      <c r="C41">
+      <c r="D41">
         <v>0.919499909</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42">
+        <v>0.83998474999999995</v>
+      </c>
+      <c r="B42">
         <v>0.841039274</v>
       </c>
-      <c r="B42">
+      <c r="C42">
         <v>0.85646659700000005</v>
       </c>
-      <c r="C42">
+      <c r="D42">
         <v>0.88923533799999999</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43">
+        <v>0.87676414999999996</v>
+      </c>
+      <c r="B43">
         <v>0.86781517100000005</v>
       </c>
-      <c r="B43">
+      <c r="C43">
         <v>0.89116305799999995</v>
       </c>
-      <c r="C43">
+      <c r="D43">
         <v>0.90972628700000002</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44">
+        <v>0.86153341000000006</v>
+      </c>
+      <c r="B44">
         <v>0.85782707599999997</v>
       </c>
-      <c r="B44">
+      <c r="C44">
         <v>0.87520729799999997</v>
       </c>
-      <c r="C44">
+      <c r="D44">
         <v>0.86984188699999998</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45">
+        <v>0.91800106999999997</v>
+      </c>
+      <c r="B45">
         <v>0.90155444100000004</v>
       </c>
-      <c r="B45">
+      <c r="C45">
         <v>0.92083401300000001</v>
       </c>
-      <c r="C45">
+      <c r="D45">
         <v>0.94432517900000001</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46">
+        <v>0.96145497000000002</v>
+      </c>
+      <c r="B46">
         <v>0.96301809400000005</v>
       </c>
-      <c r="B46">
+      <c r="C46">
         <v>0.95294743500000001</v>
       </c>
-      <c r="C46">
+      <c r="D46">
         <v>0.77396531700000004</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47">
+        <v>0.86735382999999999</v>
+      </c>
+      <c r="B47">
         <v>0.86311220200000005</v>
       </c>
-      <c r="B47">
+      <c r="C47">
         <v>0.87182403399999997</v>
       </c>
-      <c r="C47">
+      <c r="D47">
         <v>0.87781328199999997</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48">
+        <v>0.89438706000000001</v>
+      </c>
+      <c r="B48">
         <v>0.88658529900000005</v>
       </c>
-      <c r="B48">
+      <c r="C48">
         <v>0.89976643300000003</v>
       </c>
-      <c r="C48">
+      <c r="D48">
         <v>0.89781925600000001</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49">
+        <v>0.88998641000000001</v>
+      </c>
+      <c r="B49">
         <v>0.88821678800000003</v>
       </c>
-      <c r="B49">
+      <c r="C49">
         <v>0.89805107799999995</v>
       </c>
-      <c r="C49">
+      <c r="D49">
         <v>0.87236773999999995</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50">
+        <v>0.91109214000000005</v>
+      </c>
+      <c r="B50">
         <v>0.90095117899999999</v>
       </c>
-      <c r="B50">
+      <c r="C50">
         <v>0.90987048599999998</v>
       </c>
-      <c r="C50">
+      <c r="D50">
         <v>0.93473604600000004</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51">
+        <v>0.94282699000000003</v>
+      </c>
+      <c r="B51">
         <v>0.94672431199999996</v>
       </c>
-      <c r="B51">
+      <c r="C51">
         <v>0.94754211899999996</v>
       </c>
-      <c r="C51">
+      <c r="D51">
         <v>0.97242432999999995</v>
       </c>
     </row>
